--- a/ProductBacklog_cours.xlsx
+++ b/ProductBacklog_cours.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ste-v\Documents\Cours\2ème\2ème Semestre\Interschool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leohu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51941E6A-BAD4-4F36-8E4F-FDAA9126950D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BD9A64-80B0-485C-B68A-9D9B92508611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1100" windowWidth="12220" windowHeight="9700" xr2:uid="{5C7D5F19-E01B-F642-AE8F-F685C6D56D3B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C7D5F19-E01B-F642-AE8F-F685C6D56D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductBacklog" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="88">
   <si>
     <t>US Nr.</t>
   </si>
@@ -423,6 +423,21 @@
   </si>
   <si>
     <t>Rate users</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>1,Steph+Alej</t>
+  </si>
+  <si>
+    <t>1,Léo+Zak</t>
   </si>
 </sst>
 </file>
@@ -1063,30 +1078,30 @@
   </sheetPr>
   <dimension ref="A1:R91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="75" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="39" style="3" customWidth="1"/>
-    <col min="5" max="5" width="56.36328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="37.36328125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="56.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="1" customWidth="1"/>
     <col min="11" max="11" width="26" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.453125" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="11.453125" style="2"/>
+    <col min="12" max="12" width="18.42578125" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1111,7 +1126,7 @@
       <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -1124,7 +1139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1154,7 +1169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -1184,7 +1199,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -1214,7 +1229,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1244,7 +1259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1269,14 +1284,16 @@
       <c r="H7" s="11">
         <v>0</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="J7" s="7"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1301,14 +1318,16 @@
       <c r="H8" s="11">
         <v>0</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="J8" s="7"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>10</v>
       </c>
@@ -1333,14 +1352,16 @@
       <c r="H9" s="11">
         <v>0</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="J9" s="7"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>11</v>
       </c>
@@ -1365,14 +1386,18 @@
       <c r="H10" s="11">
         <v>0</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>86</v>
+      </c>
       <c r="K10" s="17"/>
       <c r="L10" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>12</v>
       </c>
@@ -1397,14 +1422,16 @@
       <c r="H11" s="11">
         <v>0</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="J11" s="7"/>
       <c r="K11" s="19"/>
       <c r="L11" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>13</v>
       </c>
@@ -1429,14 +1456,16 @@
       <c r="H12" s="11">
         <v>0</v>
       </c>
-      <c r="I12" s="20"/>
+      <c r="I12" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="J12" s="20"/>
       <c r="K12" s="23"/>
       <c r="L12" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>14</v>
       </c>
@@ -1461,14 +1490,18 @@
       <c r="H13" s="11">
         <v>0</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="I13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>86</v>
+      </c>
       <c r="K13" s="17"/>
       <c r="L13" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>15</v>
       </c>
@@ -1493,14 +1526,16 @@
       <c r="H14" s="11">
         <v>0</v>
       </c>
-      <c r="I14" s="20"/>
+      <c r="I14" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="J14" s="20"/>
       <c r="K14" s="22"/>
       <c r="L14" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -1525,14 +1560,16 @@
       <c r="H15" s="11">
         <v>0</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="I15" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="J15" s="7"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>9</v>
       </c>
@@ -1557,14 +1594,16 @@
       <c r="H16" s="11">
         <v>0</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="J16" s="7"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>17</v>
       </c>
@@ -1589,14 +1628,16 @@
       <c r="H17" s="11">
         <v>0</v>
       </c>
-      <c r="I17" s="20"/>
+      <c r="I17" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="J17" s="20"/>
       <c r="K17" s="22"/>
       <c r="L17" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -1621,14 +1662,16 @@
       <c r="H18" s="11">
         <v>0</v>
       </c>
-      <c r="I18" s="20"/>
+      <c r="I18" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="J18" s="20"/>
       <c r="K18" s="22"/>
       <c r="L18" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>5</v>
       </c>
@@ -1658,7 +1701,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -1683,14 +1726,16 @@
       <c r="H20" s="11">
         <v>0</v>
       </c>
-      <c r="I20" s="7"/>
+      <c r="I20" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="J20" s="7"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -1715,14 +1760,16 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-      <c r="I21" s="7"/>
+      <c r="I21" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="J21" s="7"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>22</v>
       </c>
@@ -1747,14 +1794,18 @@
       <c r="H22" s="11">
         <v>0</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="I22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="K22" s="17"/>
       <c r="L22" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>24</v>
       </c>
@@ -1779,14 +1830,16 @@
       <c r="H23" s="11">
         <v>0</v>
       </c>
-      <c r="I23" s="7"/>
+      <c r="I23" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="J23" s="7"/>
       <c r="K23" s="19"/>
       <c r="L23" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>25</v>
       </c>
@@ -1811,14 +1864,16 @@
       <c r="H24" s="11">
         <v>0</v>
       </c>
-      <c r="I24" s="20"/>
+      <c r="I24" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="J24" s="20"/>
       <c r="K24" s="23"/>
       <c r="L24" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>26</v>
       </c>
@@ -1843,14 +1898,18 @@
       <c r="H25" s="11">
         <v>0</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="I25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="K25" s="17"/>
       <c r="L25" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>27</v>
       </c>
@@ -1875,14 +1934,16 @@
       <c r="H26" s="11">
         <v>0</v>
       </c>
-      <c r="I26" s="20"/>
+      <c r="I26" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="J26" s="20"/>
       <c r="K26" s="22"/>
       <c r="L26" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>20</v>
       </c>
@@ -1907,14 +1968,16 @@
       <c r="H27" s="11">
         <v>0</v>
       </c>
-      <c r="I27" s="7"/>
+      <c r="I27" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="J27" s="7"/>
       <c r="K27" s="17"/>
       <c r="L27" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>21</v>
       </c>
@@ -1939,14 +2002,16 @@
       <c r="H28" s="11">
         <v>0</v>
       </c>
-      <c r="I28" s="7"/>
+      <c r="I28" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="J28" s="7"/>
       <c r="K28" s="17"/>
       <c r="L28" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -1978,7 +2043,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -2010,7 +2075,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -2042,7 +2107,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -2074,7 +2139,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>33</v>
       </c>
@@ -2106,7 +2171,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>32</v>
       </c>
@@ -2138,7 +2203,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -2170,7 +2235,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>36</v>
       </c>
@@ -2202,7 +2267,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>38</v>
       </c>
@@ -2234,7 +2299,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>35</v>
       </c>
@@ -2253,7 +2318,9 @@
       <c r="F38" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G38" s="7"/>
+      <c r="G38" s="7">
+        <v>33</v>
+      </c>
       <c r="H38" s="11">
         <v>0</v>
       </c>
@@ -2264,7 +2331,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>37</v>
       </c>
@@ -2283,7 +2350,9 @@
       <c r="F39" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="7"/>
+      <c r="G39" s="7">
+        <v>22</v>
+      </c>
       <c r="H39" s="11">
         <v>0</v>
       </c>
@@ -2294,7 +2363,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -2308,7 +2377,7 @@
       <c r="K40" s="17"/>
       <c r="L40" s="17"/>
     </row>
-    <row r="41" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -2322,7 +2391,7 @@
       <c r="K41" s="17"/>
       <c r="L41" s="17"/>
     </row>
-    <row r="42" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -2336,7 +2405,7 @@
       <c r="K42" s="17"/>
       <c r="L42" s="17"/>
     </row>
-    <row r="43" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -2350,7 +2419,7 @@
       <c r="K43" s="17"/>
       <c r="L43" s="17"/>
     </row>
-    <row r="44" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -2364,7 +2433,7 @@
       <c r="K44" s="17"/>
       <c r="L44" s="17"/>
     </row>
-    <row r="45" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
@@ -2378,7 +2447,7 @@
       <c r="K45" s="26"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
       <c r="B46" s="2"/>
       <c r="C46" s="25"/>
@@ -2392,7 +2461,7 @@
       <c r="K46" s="26"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2406,7 +2475,7 @@
       <c r="K47" s="26"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2420,7 +2489,7 @@
       <c r="K48" s="26"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2434,7 +2503,7 @@
       <c r="K49" s="26"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="24" t="s">
         <v>19</v>
       </c>
@@ -2455,7 +2524,7 @@
       <c r="K50" s="26"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2469,7 +2538,7 @@
       <c r="K51" s="26"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2483,68 +2552,68 @@
       <c r="K52" s="26"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K53" s="26"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K54" s="26"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K55" s="26"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K56" s="26"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K57" s="26"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K58" s="26"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K59" s="26"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K62" s="26"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K63" s="26"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K64" s="26"/>
     </row>
-    <row r="65" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K65" s="26"/>
     </row>
-    <row r="66" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K66" s="26"/>
     </row>
-    <row r="67" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K67" s="26"/>
     </row>
-    <row r="68" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K68" s="26"/>
     </row>
-    <row r="69" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K69" s="26"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B81" s="30"/>
       <c r="D81"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B82" s="30"/>
       <c r="D82"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B83" s="30"/>
       <c r="D83"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B84" s="30"/>
       <c r="D84"/>
     </row>
-    <row r="85" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="30"/>
       <c r="C85" s="2"/>
@@ -2562,7 +2631,7 @@
       <c r="Q85"/>
       <c r="R85"/>
     </row>
-    <row r="86" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="30"/>
       <c r="C86" s="2"/>
@@ -2580,7 +2649,7 @@
       <c r="Q86"/>
       <c r="R86"/>
     </row>
-    <row r="87" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="30"/>
       <c r="C87" s="2"/>
@@ -2598,7 +2667,7 @@
       <c r="Q87"/>
       <c r="R87"/>
     </row>
-    <row r="88" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="30"/>
       <c r="C88" s="2"/>
@@ -2616,7 +2685,7 @@
       <c r="Q88"/>
       <c r="R88"/>
     </row>
-    <row r="89" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="30"/>
       <c r="C89" s="2"/>
@@ -2634,7 +2703,7 @@
       <c r="Q89"/>
       <c r="R89"/>
     </row>
-    <row r="90" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="30"/>
       <c r="C90" s="2"/>
@@ -2652,7 +2721,7 @@
       <c r="Q90"/>
       <c r="R90"/>
     </row>
-    <row r="91" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="30"/>
       <c r="C91" s="2"/>

--- a/ProductBacklog_cours.xlsx
+++ b/ProductBacklog_cours.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leohu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BD9A64-80B0-485C-B68A-9D9B92508611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC72FD2-C388-4454-9807-995CE7AD88A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C7D5F19-E01B-F642-AE8F-F685C6D56D3B}"/>
   </bookViews>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="95">
   <si>
     <t>US Nr.</t>
   </si>
@@ -438,6 +438,27 @@
   </si>
   <si>
     <t>1,Léo+Zak</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>2,Zak</t>
+  </si>
+  <si>
+    <t>2,Steph+Zak</t>
+  </si>
+  <si>
+    <t>2,Steph+Alej</t>
+  </si>
+  <si>
+    <t>2,Zak+Steph</t>
+  </si>
+  <si>
+    <t>Not done</t>
+  </si>
+  <si>
+    <t>2,Zak+Léo</t>
   </si>
 </sst>
 </file>
@@ -1079,8 +1100,8 @@
   <dimension ref="A1:R91"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,8 +1308,12 @@
       <c r="I7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="17"/>
+      <c r="J7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>88</v>
+      </c>
       <c r="L7" s="17" t="s">
         <v>16</v>
       </c>
@@ -1321,8 +1346,12 @@
       <c r="I8" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="17"/>
+      <c r="J8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>88</v>
+      </c>
       <c r="L8" s="17" t="s">
         <v>16</v>
       </c>
@@ -1355,8 +1384,12 @@
       <c r="I9" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="17"/>
+      <c r="J9" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>88</v>
+      </c>
       <c r="L9" s="17" t="s">
         <v>16</v>
       </c>
@@ -1392,7 +1425,9 @@
       <c r="J10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K10" s="17"/>
+      <c r="K10" s="17" t="s">
+        <v>88</v>
+      </c>
       <c r="L10" s="17" t="s">
         <v>16</v>
       </c>
@@ -1496,7 +1531,9 @@
       <c r="J13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K13" s="17"/>
+      <c r="K13" s="17" t="s">
+        <v>88</v>
+      </c>
       <c r="L13" s="17" t="s">
         <v>16</v>
       </c>
@@ -1597,8 +1634,12 @@
       <c r="I16" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="17"/>
+      <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>88</v>
+      </c>
       <c r="L16" s="17" t="s">
         <v>16</v>
       </c>
@@ -1800,7 +1841,9 @@
       <c r="J22" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K22" s="17"/>
+      <c r="K22" s="17" t="s">
+        <v>88</v>
+      </c>
       <c r="L22" s="17" t="s">
         <v>16</v>
       </c>
@@ -1904,7 +1947,9 @@
       <c r="J25" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K25" s="17"/>
+      <c r="K25" s="17" t="s">
+        <v>93</v>
+      </c>
       <c r="L25" s="17" t="s">
         <v>16</v>
       </c>
@@ -2005,8 +2050,12 @@
       <c r="I28" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="17"/>
+      <c r="J28" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>88</v>
+      </c>
       <c r="L28" s="17" t="s">
         <v>16</v>
       </c>

--- a/ProductBacklog_cours.xlsx
+++ b/ProductBacklog_cours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leohu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC72FD2-C388-4454-9807-995CE7AD88A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924F0A17-8E57-41BC-944F-D08689784D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C7D5F19-E01B-F642-AE8F-F685C6D56D3B}"/>
   </bookViews>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="95">
   <si>
     <t>US Nr.</t>
   </si>
@@ -455,10 +455,10 @@
     <t>2,Zak+Steph</t>
   </si>
   <si>
-    <t>Not done</t>
-  </si>
-  <si>
     <t>2,Zak+Léo</t>
+  </si>
+  <si>
+    <t>2,Zak+Alej</t>
   </si>
 </sst>
 </file>
@@ -1099,9 +1099,9 @@
   </sheetPr>
   <dimension ref="A1:R91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="75" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,7 +1181,7 @@
         <v>1000</v>
       </c>
       <c r="H3" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -1211,7 +1211,7 @@
         <v>900</v>
       </c>
       <c r="H4" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -1241,7 +1241,7 @@
         <v>800</v>
       </c>
       <c r="H5" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -1271,7 +1271,7 @@
         <v>700</v>
       </c>
       <c r="H6" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -1303,13 +1303,13 @@
         <v>100</v>
       </c>
       <c r="H7" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>83</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K7" s="17" t="s">
         <v>88</v>
@@ -1341,7 +1341,7 @@
         <v>99</v>
       </c>
       <c r="H8" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>83</v>
@@ -1379,7 +1379,7 @@
         <v>98</v>
       </c>
       <c r="H9" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>84</v>
@@ -1417,7 +1417,7 @@
         <v>97</v>
       </c>
       <c r="H10" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>84</v>
@@ -1523,7 +1523,7 @@
         <v>94</v>
       </c>
       <c r="H13" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>83</v>
@@ -1531,9 +1531,7 @@
       <c r="J13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K13" s="17" t="s">
-        <v>88</v>
-      </c>
+      <c r="K13" s="17"/>
       <c r="L13" s="17" t="s">
         <v>16</v>
       </c>
@@ -1629,7 +1627,7 @@
         <v>91</v>
       </c>
       <c r="H16" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>84</v>
@@ -1833,7 +1831,7 @@
         <v>86</v>
       </c>
       <c r="H22" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>84</v>
@@ -1939,7 +1937,7 @@
         <v>83</v>
       </c>
       <c r="H25" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>83</v>
@@ -1947,9 +1945,7 @@
       <c r="J25" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K25" s="17" t="s">
-        <v>93</v>
-      </c>
+      <c r="K25" s="17"/>
       <c r="L25" s="17" t="s">
         <v>16</v>
       </c>
@@ -1977,12 +1973,14 @@
         <v>82</v>
       </c>
       <c r="H26" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="J26" s="20"/>
+      <c r="J26" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="K26" s="22"/>
       <c r="L26" s="17" t="s">
         <v>16</v>
@@ -2045,7 +2043,7 @@
         <v>80</v>
       </c>
       <c r="H28" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>83</v>
